--- a/StructureDefinition-ext-R5-Procedure.performer.xlsx
+++ b/StructureDefinition-ext-R5-Procedure.performer.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="897" uniqueCount="166">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="897" uniqueCount="163">
   <si>
     <t>Property</t>
   </si>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-17T20:42:20.5370068+00:00</t>
+    <t>2026-02-20T17:59:09.1776521+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -127,7 +127,7 @@
     <t>Base Definition</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/StructureDefinition/Extension|4.0.1</t>
+    <t>http://hl7.org/fhir/StructureDefinition/Extension</t>
   </si>
   <si>
     <t>Abstract</t>
@@ -405,15 +405,6 @@
   <si>
     <t xml:space="preserve">CodeableConcept
 </t>
-  </si>
-  <si>
-    <t>example</t>
-  </si>
-  <si>
-    <t>A code that identifies the role of a performer of the procedure.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/5.0/ValueSet/ValueSet-R5-performer-role-for-R4</t>
   </si>
   <si>
     <t>Extension.value[x]</t>
@@ -455,7 +446,7 @@
     <t>Extension.extension:actor.value[x]</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(http://hl7.org/fhir/5.0/StructureDefinition/profile-CareTeam|0.0.1-snapshot-3|CareTeam|4.0.1|http://hl7.org/fhir/5.0/StructureDefinition/profile-HealthcareService|0.0.1-snapshot-3|HealthcareService|4.0.1)
+    <t xml:space="preserve">Reference(http://hl7.org/fhir/5.0/StructureDefinition/profile-CareTeam|CareTeam|http://hl7.org/fhir/5.0/StructureDefinition/profile-HealthcareService|HealthcareService)
 </t>
   </si>
   <si>
@@ -493,7 +484,7 @@
     <t>Extension.extension:onBehalfOf.value[x]</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(http://hl7.org/fhir/5.0/StructureDefinition/profile-Organization|0.0.1-snapshot-3|Organization|4.0.1)
+    <t xml:space="preserve">Reference(http://hl7.org/fhir/5.0/StructureDefinition/profile-Organization|Organization)
 </t>
   </si>
   <si>
@@ -889,8 +880,8 @@
     <col min="22" max="22" width="14.4296875" customWidth="true" bestFit="true"/>
     <col min="23" max="23" width="15.31640625" customWidth="true" bestFit="true"/>
     <col min="24" max="24" width="14.62890625" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="51.4609375" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="55.45703125" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="16.9609375" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="15.3125" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="5.10546875" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="17.6953125" customWidth="true" bestFit="true"/>
     <col min="29" max="29" width="35.90625" customWidth="true" bestFit="true"/>
@@ -1806,43 +1797,43 @@
         <v>77</v>
       </c>
       <c r="X9" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y9" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z9" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA9" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB9" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC9" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD9" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE9" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AF9" t="s" s="2">
         <v>124</v>
       </c>
-      <c r="Y9" t="s" s="2">
+      <c r="AG9" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH9" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AI9" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ9" t="s" s="2">
         <v>125</v>
-      </c>
-      <c r="Z9" t="s" s="2">
-        <v>126</v>
-      </c>
-      <c r="AA9" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AB9" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC9" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AD9" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AE9" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AF9" t="s" s="2">
-        <v>127</v>
-      </c>
-      <c r="AG9" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AH9" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="AI9" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AJ9" t="s" s="2">
-        <v>128</v>
       </c>
       <c r="AK9" t="s" s="2">
         <v>120</v>
@@ -1850,13 +1841,13 @@
     </row>
     <row r="10">
       <c r="A10" t="s" s="2">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="B10" t="s" s="2">
         <v>92</v>
       </c>
       <c r="C10" t="s" s="2">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="D10" t="s" s="2">
         <v>77</v>
@@ -1881,14 +1872,14 @@
         <v>93</v>
       </c>
       <c r="L10" t="s" s="2">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="M10" t="s" s="2">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="N10" s="2"/>
       <c r="O10" t="s" s="2">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="P10" t="s" s="2">
         <v>77</v>
@@ -1957,7 +1948,7 @@
     </row>
     <row r="11">
       <c r="A11" t="s" s="2">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="B11" t="s" s="2">
         <v>105</v>
@@ -2060,7 +2051,7 @@
     </row>
     <row r="12">
       <c r="A12" t="s" s="2">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="B12" t="s" s="2">
         <v>107</v>
@@ -2165,7 +2156,7 @@
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="B13" t="s" s="2">
         <v>113</v>
@@ -2208,7 +2199,7 @@
       </c>
       <c r="Q13" s="2"/>
       <c r="R13" t="s" s="2">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="S13" t="s" s="2">
         <v>77</v>
@@ -2270,7 +2261,7 @@
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="B14" t="s" s="2">
         <v>122</v>
@@ -2296,13 +2287,13 @@
         <v>77</v>
       </c>
       <c r="K14" t="s" s="2">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="L14" t="s" s="2">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="M14" t="s" s="2">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="N14" s="2"/>
       <c r="O14" s="2"/>
@@ -2353,7 +2344,7 @@
         <v>77</v>
       </c>
       <c r="AF14" t="s" s="2">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="AG14" t="s" s="2">
         <v>78</v>
@@ -2365,7 +2356,7 @@
         <v>77</v>
       </c>
       <c r="AJ14" t="s" s="2">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="AK14" t="s" s="2">
         <v>120</v>
@@ -2373,13 +2364,13 @@
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="B15" t="s" s="2">
         <v>92</v>
       </c>
       <c r="C15" t="s" s="2">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="D15" t="s" s="2">
         <v>77</v>
@@ -2404,16 +2395,16 @@
         <v>93</v>
       </c>
       <c r="L15" t="s" s="2">
+        <v>139</v>
+      </c>
+      <c r="M15" t="s" s="2">
+        <v>140</v>
+      </c>
+      <c r="N15" t="s" s="2">
+        <v>141</v>
+      </c>
+      <c r="O15" t="s" s="2">
         <v>142</v>
-      </c>
-      <c r="M15" t="s" s="2">
-        <v>143</v>
-      </c>
-      <c r="N15" t="s" s="2">
-        <v>144</v>
-      </c>
-      <c r="O15" t="s" s="2">
-        <v>145</v>
       </c>
       <c r="P15" t="s" s="2">
         <v>77</v>
@@ -2482,7 +2473,7 @@
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="B16" t="s" s="2">
         <v>105</v>
@@ -2585,7 +2576,7 @@
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="B17" t="s" s="2">
         <v>107</v>
@@ -2690,7 +2681,7 @@
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="B18" t="s" s="2">
         <v>113</v>
@@ -2733,7 +2724,7 @@
       </c>
       <c r="Q18" s="2"/>
       <c r="R18" t="s" s="2">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="S18" t="s" s="2">
         <v>77</v>
@@ -2795,7 +2786,7 @@
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="B19" t="s" s="2">
         <v>122</v>
@@ -2821,16 +2812,16 @@
         <v>77</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="M19" t="s" s="2">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="N19" t="s" s="2">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="O19" s="2"/>
       <c r="P19" t="s" s="2">
@@ -2880,7 +2871,7 @@
         <v>77</v>
       </c>
       <c r="AF19" t="s" s="2">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="AG19" t="s" s="2">
         <v>78</v>
@@ -2892,7 +2883,7 @@
         <v>77</v>
       </c>
       <c r="AJ19" t="s" s="2">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="AK19" t="s" s="2">
         <v>120</v>
@@ -2900,13 +2891,13 @@
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="B20" t="s" s="2">
         <v>92</v>
       </c>
       <c r="C20" t="s" s="2">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="D20" t="s" s="2">
         <v>77</v>
@@ -2931,14 +2922,14 @@
         <v>93</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="M20" t="s" s="2">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="N20" s="2"/>
       <c r="O20" t="s" s="2">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="P20" t="s" s="2">
         <v>77</v>
@@ -3007,7 +2998,7 @@
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="B21" t="s" s="2">
         <v>105</v>
@@ -3110,7 +3101,7 @@
     </row>
     <row r="22">
       <c r="A22" t="s" s="2">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="B22" t="s" s="2">
         <v>107</v>
@@ -3215,7 +3206,7 @@
     </row>
     <row r="23">
       <c r="A23" t="s" s="2">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="B23" t="s" s="2">
         <v>113</v>
@@ -3258,7 +3249,7 @@
       </c>
       <c r="Q23" s="2"/>
       <c r="R23" t="s" s="2">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="S23" t="s" s="2">
         <v>77</v>
@@ -3320,7 +3311,7 @@
     </row>
     <row r="24">
       <c r="A24" t="s" s="2">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="B24" t="s" s="2">
         <v>122</v>
@@ -3346,13 +3337,13 @@
         <v>77</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="N24" s="2"/>
       <c r="O24" s="2"/>
@@ -3403,7 +3394,7 @@
         <v>77</v>
       </c>
       <c r="AF24" t="s" s="2">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="AG24" t="s" s="2">
         <v>78</v>
@@ -3415,7 +3406,7 @@
         <v>77</v>
       </c>
       <c r="AJ24" t="s" s="2">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="AK24" t="s" s="2">
         <v>120</v>
@@ -3528,10 +3519,10 @@
     </row>
     <row r="26">
       <c r="A26" t="s" s="2">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" t="s" s="2">
@@ -3554,13 +3545,13 @@
         <v>77</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="N26" s="2"/>
       <c r="O26" s="2"/>
@@ -3611,7 +3602,7 @@
         <v>77</v>
       </c>
       <c r="AF26" t="s" s="2">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="AG26" t="s" s="2">
         <v>78</v>
@@ -3623,7 +3614,7 @@
         <v>77</v>
       </c>
       <c r="AJ26" t="s" s="2">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="AK26" t="s" s="2">
         <v>120</v>
